--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Wykres1" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>NonLinearFilter</t>
   </si>
@@ -141,10 +142,37 @@
     <t>Transfer dla obrazy 3kanałowego</t>
   </si>
   <si>
-    <t>DEVICE-&gt;HOST PINNED MEM</t>
-  </si>
-  <si>
-    <t>HOST-&gt;DEVICE STANDARD</t>
+    <t>HOST-&gt;DEVICE PAGEABLE</t>
+  </si>
+  <si>
+    <t>DEVICE-&gt;HOST PINNED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozmiar </t>
+  </si>
+  <si>
+    <t>pinned</t>
+  </si>
+  <si>
+    <t>standardowa</t>
+  </si>
+  <si>
+    <t>DEVICE-&gt;HOST (MB/s)</t>
+  </si>
+  <si>
+    <t>HOST-&gt;DEVICE (MB/s)</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>HOST-&gt;DEVICE PAGEABLE (ms)</t>
+  </si>
+  <si>
+    <t>DEVICE-&gt;HOST PINNED (ms)</t>
+  </si>
+  <si>
+    <t>HOST-&gt;DEVICE-&gt;HOST (ms)</t>
   </si>
 </sst>
 </file>
@@ -205,18 +233,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -233,8 +275,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867803913"/>
-          <c:h val="0.75595023836306197"/>
+          <c:w val="0.64297944867803991"/>
+          <c:h val="0.75595023836306263"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -428,24 +470,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78524800"/>
-        <c:axId val="78526336"/>
+        <c:axId val="85692800"/>
+        <c:axId val="85694336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78524800"/>
+        <c:axId val="85692800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78526336"/>
+        <c:crossAx val="85694336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78526336"/>
+        <c:axId val="85694336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,20 +495,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78524800"/>
+        <c:crossAx val="85692800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -484,8 +525,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867803969"/>
-          <c:h val="0.75595023836306241"/>
+          <c:w val="0.64297944867804036"/>
+          <c:h val="0.75595023836306285"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -687,24 +728,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78547584"/>
-        <c:axId val="78561664"/>
+        <c:axId val="85719680"/>
+        <c:axId val="86057344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78547584"/>
+        <c:axId val="85719680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78561664"/>
+        <c:crossAx val="86057344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78561664"/>
+        <c:axId val="86057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,20 +753,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78547584"/>
+        <c:crossAx val="85719680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -743,8 +783,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867804013"/>
-          <c:h val="0.75595023836306274"/>
+          <c:w val="0.64297944867804091"/>
+          <c:h val="0.75595023836306319"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1010,24 +1050,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83450496"/>
-        <c:axId val="83460480"/>
+        <c:axId val="86088320"/>
+        <c:axId val="86094208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83450496"/>
+        <c:axId val="86088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83460480"/>
+        <c:crossAx val="86094208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83460480"/>
+        <c:axId val="86094208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,20 +1075,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83450496"/>
+        <c:crossAx val="86088320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1066,8 +1105,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867804069"/>
-          <c:h val="0.75595023836306297"/>
+          <c:w val="0.64297944867804135"/>
+          <c:h val="0.75595023836306363"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1456,24 +1495,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79109504"/>
-        <c:axId val="79123584"/>
+        <c:axId val="97074560"/>
+        <c:axId val="97092736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79109504"/>
+        <c:axId val="97074560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79123584"/>
+        <c:crossAx val="97092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79123584"/>
+        <c:axId val="97092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,20 +1520,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79109504"/>
+        <c:crossAx val="97074560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1512,8 +1550,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867804013"/>
-          <c:h val="0.75595023836306274"/>
+          <c:w val="0.64297944867804091"/>
+          <c:h val="0.75595023836306319"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1698,24 +1736,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79157120"/>
-        <c:axId val="79158656"/>
+        <c:axId val="96995200"/>
+        <c:axId val="96996736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79157120"/>
+        <c:axId val="96995200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79158656"/>
+        <c:crossAx val="96996736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79158656"/>
+        <c:axId val="96996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,20 +1761,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79157120"/>
+        <c:crossAx val="96995200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1754,8 +1791,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867803969"/>
-          <c:h val="0.75595023836306241"/>
+          <c:w val="0.64297944867804036"/>
+          <c:h val="0.75595023836306285"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1916,24 +1953,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83779584"/>
-        <c:axId val="83781120"/>
+        <c:axId val="97030144"/>
+        <c:axId val="97031680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83779584"/>
+        <c:axId val="97030144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83781120"/>
+        <c:crossAx val="97031680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83781120"/>
+        <c:axId val="97031680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1978,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83779584"/>
+        <c:crossAx val="97030144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,7 +1991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1964,6 +2001,313 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas przesłania ramek</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOST-&gt;DEVICE PAGEABLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>160X120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320x240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480x360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640x480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960x720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120x840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280x960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440x1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600x1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1760x1320</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$M$55:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$N$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DEVICE-&gt;HOST PINNED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$N$55:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOST-&gt;DEVICE-&gt;HOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$O$55:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="98244864"/>
+        <c:axId val="98254848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98244864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98254848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98254848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas przesłania (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98244864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="10"/>
+  <c:chart>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1972,8 +2316,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867804013"/>
-          <c:h val="0.75595023836306274"/>
+          <c:w val="0.64297944867804191"/>
+          <c:h val="0.75595023836306385"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1987,7 +2331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HOST-&gt;DEVICE STANDARD</c:v>
+                  <c:v>HOST-&gt;DEVICE PAGEABLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2085,7 +2429,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DEVICE-&gt;HOST PINNED MEM</c:v>
+                  <c:v>DEVICE-&gt;HOST PINNED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2154,61 +2498,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83810560"/>
-        <c:axId val="83820544"/>
+        <c:axId val="97216384"/>
+        <c:axId val="97217920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83810560"/>
+        <c:axId val="97216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83820544"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="97217920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83820544"/>
+        <c:axId val="97217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2560,357 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83810560"/>
+        <c:crossAx val="97216384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czasy przesłania ramek</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOST-&gt;DEVICE PAGEABLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>160X120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320x240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480x360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640x480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960x720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120x840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1280x960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440x1080</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600x1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1760x1320</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$M$55:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$N$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DEVICE-&gt;HOST PINNED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$N$55:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOST-&gt;DEVICE-&gt;HOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$O$55:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:axId val="99739136"/>
+        <c:axId val="99741056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99739136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ramki</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="99741056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99741056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99739136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,12 +2921,28 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2425,10 +3135,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2448,6 +3158,93 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C1:F12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C1:F12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Rozmiar "/>
+    <tableColumn id="2" name="HOST-&gt;DEVICE PAGEABLE (ms)"/>
+    <tableColumn id="3" name="DEVICE-&gt;HOST PINNED (ms)"/>
+    <tableColumn id="4" name="HOST-&gt;DEVICE-&gt;HOST (ms)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C17:E19" totalsRowShown="0">
+  <autoFilter ref="C17:E19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Kolumna1"/>
+    <tableColumn id="2" name="HOST-&gt;DEVICE (MB/s)"/>
+    <tableColumn id="3" name="DEVICE-&gt;HOST (MB/s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AS65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I64" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" topLeftCell="J65" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3740,12 +4537,14 @@
         <v>8.25</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>39</v>
@@ -3772,7 +4571,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O55" s="2">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="56" spans="2:15">
@@ -3796,7 +4595,7 @@
         <v>0.1</v>
       </c>
       <c r="O56" s="2">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="57" spans="2:15">
@@ -3820,7 +4619,7 @@
         <v>0.18</v>
       </c>
       <c r="O57" s="2">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58" spans="2:15">
@@ -3844,7 +4643,7 @@
         <v>0.22</v>
       </c>
       <c r="O58" s="2">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="2:15">
@@ -3868,7 +4667,7 @@
         <v>0.34</v>
       </c>
       <c r="O59" s="2">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60" spans="2:15">
@@ -3892,7 +4691,7 @@
         <v>0.41</v>
       </c>
       <c r="O60" s="2">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="61" spans="2:15">
@@ -3916,7 +4715,7 @@
         <v>0.54</v>
       </c>
       <c r="O61" s="2">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="62" spans="2:15">
@@ -3930,7 +4729,7 @@
         <v>0.73</v>
       </c>
       <c r="O62" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="63" spans="2:15">
@@ -3944,7 +4743,7 @@
         <v>0.86</v>
       </c>
       <c r="O63" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:15">
@@ -3958,7 +4757,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O64" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="65" spans="12:15">
@@ -3972,7 +4771,7 @@
         <v>1.3</v>
       </c>
       <c r="O65" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3984,14 +4783,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <cols>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>4884</v>
+      </c>
+      <c r="E18">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>2135</v>
+      </c>
+      <c r="E19">
+        <v>1904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
